--- a/crops.xlsx
+++ b/crops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raxielh/Desktop/Sistema Recomendador de Cultivos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raxielh/Documents/Sistema Recomendador de Cultivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD266597-DAC6-894B-B0AA-A289D13CCA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A64624-5811-AA49-8450-ECC0EBC58291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15960" xr2:uid="{2AF0B6D0-7BBE-D544-90C4-7921BA42A879}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="23760" windowHeight="21240" xr2:uid="{2AF0B6D0-7BBE-D544-90C4-7921BA42A879}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
   <si>
     <t>crop</t>
   </si>
@@ -206,13 +206,137 @@
   </si>
   <si>
     <t>Yute</t>
+  </si>
+  <si>
+    <t>coconut</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>pigeonpeas</t>
+  </si>
+  <si>
+    <t>mango</t>
+  </si>
+  <si>
+    <t>Coco</t>
+  </si>
+  <si>
+    <t>El coco es una fruta (drupa) obtenida principalmente de la especie tropical cocotero (Cocos nucifera), la palmera más cultivada a nivel mundial.</t>
+  </si>
+  <si>
+    <t>coconut.jpg</t>
+  </si>
+  <si>
+    <t>La naranja es una fruta cítrica obtenida del naranjo dulce, del naranjo amargo y de naranjos de otras variedades o híbridos, de origen asiático</t>
+  </si>
+  <si>
+    <t>Naranja</t>
+  </si>
+  <si>
+    <t>La manzana o poma​ es el fruto comestible de la especie Malus domestica, el manzano común. Es una fruta pomácea de forma redonda y sabor muy dulce, dependiendo de la variedad. % de la cantidad diaria recomendada para adultos.</t>
+  </si>
+  <si>
+    <t>Manzana</t>
+  </si>
+  <si>
+    <t>orange.jpg</t>
+  </si>
+  <si>
+    <t>apple.jpg</t>
+  </si>
+  <si>
+    <t>muskmelon.jpg</t>
+  </si>
+  <si>
+    <t>Cucumis melo, llamado comúnmente melón, es una especie de la familia de las cucurbitáceas. Domesticada hace más de cuatro mil años en la región mediterránea oriental y Asia occidental, el origen exacto de la especie silvestre es aún desconocido</t>
+  </si>
+  <si>
+    <t>grapes.jpg</t>
+  </si>
+  <si>
+    <t>Las uvas son frutas pequeñas y redondas que crecen en racimos en la vid, una planta conocida como Vitis vinifera. Son ampliamente cultivadas en todo el mundo para la producción de vino, pero también se consumen frescas como fruta de mesa y se utilizan para hacer jugo, pasas y otros productos alimenticios. Las uvas varían en color, tamaño y sabor según la variedad, y pueden ser verdes (uvas blancas), rojas o moradas (uvas negras).</t>
+  </si>
+  <si>
+    <t>El mango es una fruta tropical originaria de la India, pero se cultiva en muchas partes del mundo con climas cálidos. Se caracteriza por su sabor dulce y jugoso, así como por su pulpa de color amarillo o anaranjado, aunque existen variedades de mango con pulpas de otros colores, como el mango verde. Los mangos son una fuente rica de nutrientes, incluyendo vitaminas A, C y E, así como minerales como el potasio.
+El mango se consume fresco y es un ingrediente versátil en la cocina. Se utiliza en ensaladas, salsas, batidos, postres, y como acompañamiento para platos salados. Además, se puede secar para hacer mangos deshidratados y se emplea en la fabricación de jugos, conservas y chutneys.</t>
+  </si>
+  <si>
+    <t>mango.jpg</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>lentil</t>
+  </si>
+  <si>
+    <t>blackgram</t>
+  </si>
+  <si>
+    <t>Las lentejas son una legumbre comestible muy común en muchas partes del mundo. Son pequeñas semillas en forma de disco que provienen de la planta Lens culinaris. Las lentejas se cultivan y consumen en todo el mundo debido a su valor nutricional y versatilidad en la cocina.
+Las lentejas son una excelente fuente de proteínas vegetales, fibra dietética, vitaminas (como la vitamina B, especialmente la vitamina B9 o ácido fólico) y minerales (como hierro, zinc, magnesio y potasio). Son bajas en grasa y no contienen colesterol. Además, son una fuente importante de carbohidratos complejos, que proporcionan energía sostenida.</t>
+  </si>
+  <si>
+    <t>Lentejas</t>
+  </si>
+  <si>
+    <t>blackgram.jpg</t>
+  </si>
+  <si>
+    <t>lentis.jpg</t>
+  </si>
+  <si>
+    <t>Vigna mungo</t>
+  </si>
+  <si>
+    <t>Vigna mungo, también conocida como urad dal o frijol negro, es una especie de planta de la familia Fabaceae que se cultiva por sus semillas comestibles. Esta planta es originaria de la India y se ha cultivado durante siglos en diferentes partes de Asia, incluyendo la India, Nepal, Pakistán y otros países del sur de Asia. Las semillas de Vigna mungo son ampliamente utilizadas en la cocina de la región y son un ingrediente importante en una variedad de platos.
+Las semillas de Vigna mungo son pequeñas y de color negro o verde oscuro. Son una fuente rica de proteínas, carbohidratos y fibra dietética, y son una parte importante de la dieta en muchas culturas asiáticas. Estas semillas se utilizan para hacer dal (una preparación de lentejas), curry, papad, y se pueden moler para hacer harina que se utiliza en la preparación de panes y frituras.</t>
+  </si>
+  <si>
+    <t>mungbean</t>
+  </si>
+  <si>
+    <t>mothbeans</t>
+  </si>
+  <si>
+    <t>El frijol mungo, también conocido como "judía mungo" o "poroto verde", es una leguminosa que se cultiva ampliamente en Asia y algunas partes de África. Su nombre científico es Vigna radiata. Los frijoles mungo son pequeños y redondos, de color verde o marrón, y se utilizan en la cocina de muchas culturas en diversas preparaciones, tanto en su forma entera como en forma de brotes.
+Los frijoles mungo son una fuente de proteínas, fibra, vitaminas y minerales. Son especialmente populares en la cocina asiática, donde se utilizan para hacer platos como el dhal mungo en la India, el porridge de arroz con frijoles mungo en Corea y diferentes tipos de fideos y rollos de primavera en el sudeste asiático.</t>
+  </si>
+  <si>
+    <t>mungbean.jpg</t>
+  </si>
+  <si>
+    <t>Frijol mungo</t>
+  </si>
+  <si>
+    <t>mothbeans.jpeg</t>
+  </si>
+  <si>
+    <t>Frijol makusta</t>
+  </si>
+  <si>
+    <t>Vigna aconitifolia es una leguminosa resistente a la sequía, comúnmente cultivada en regiones áridas y semiáridas de la India. Se le llama comúnmente frijol mat, frijol polilla, matki o frijol de rocío. Las vainas, los brotes y las semillas ricas en proteínas de este cultivo se consumen comúnmente en la India.</t>
+  </si>
+  <si>
+    <t>El guandú, frijol de palo, frijolillo, frijol chícharo, palo de gandules o quinchoncho es una leguminosa arbustiva de hojas alternadas trifolioladas, similar al guisante. Se discute sobre si su origen es África o India, pero se cultiva desde hace por lo menos 3 mil años</t>
+  </si>
+  <si>
+    <t>pigeonpeas.jpg</t>
+  </si>
+  <si>
+    <t>Pigeon peas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -227,6 +351,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -249,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -258,6 +388,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,15 +703,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7E9433-995E-9B47-B907-196407147D3E}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="132.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -781,6 +913,163 @@
         <v>53</v>
       </c>
     </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
